--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>44781.86109953704</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>17.2</v>
@@ -1615,7 +1615,7 @@
         <v>20.86</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>9.58</v>
+        <v>9.59</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>14.23</v>
@@ -1648,7 +1648,7 @@
         <v>198.59</v>
       </c>
       <c r="U11" s="4" t="n">
-        <v>37.65</v>
+        <v>37.66</v>
       </c>
       <c r="V11" s="4" t="n">
         <v>12.4</v>
@@ -1663,7 +1663,7 @@
         <v>1.78</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>25.73</v>
+        <v>25.74</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>11.03</v>
@@ -1681,117 +1681,13 @@
         <v>0.27</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>47.54</v>
+        <v>47.55</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>7.22</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>15.52</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>31.18</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>53.22</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>198.61</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>25.58</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>48.32</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>15.54</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -443,8 +443,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -463,7 +463,7 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -967,103 +967,103 @@
         <v>44781.81944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.98</v>
+        <v>2.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.27</v>
+        <v>3.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.38</v>
+        <v>0.44</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.67</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>146.44</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.75</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.14</v>
+        <v>2.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44781.82638888889</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>33.28</v>
+        <v>3.33</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.86</v>
+        <v>1.19</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>46.23</v>
+        <v>4.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>181.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.17</v>
-      </c>
       <c r="W6" s="4" t="n">
-        <v>23.18</v>
+        <v>2.32</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>42.15</v>
+        <v>4.22</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44781.83333333334</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35.75</v>
+        <v>3.58</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>30.4</v>
+        <v>3.04</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>51.05</v>
+        <v>5.1</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>20.2</v>
+        <v>2.02</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.05</v>
+        <v>1.4</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.32</v>
+        <v>1.53</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>192.74</v>
+        <v>19.27</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>36.38</v>
+        <v>3.64</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.72</v>
+        <v>2.47</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>25.28</v>
+        <v>2.53</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>46.4</v>
+        <v>4.64</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>32.81</v>
+        <v>3.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>27.78</v>
+        <v>2.78</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.78</v>
+        <v>1.18</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>47.57</v>
+        <v>4.76</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>175.64</v>
+        <v>17.56</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>33.35</v>
+        <v>3.33</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.95</v>
+        <v>1.1</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>22.65</v>
+        <v>2.27</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>43.21</v>
+        <v>4.32</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>37.12</v>
+        <v>3.71</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>31.21</v>
+        <v>3.12</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.35</v>
+        <v>1.34</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>52.72</v>
+        <v>5.27</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.15</v>
+        <v>1.51</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>198.56</v>
+        <v>19.86</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.89</v>
+        <v>2.59</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>47.83</v>
+        <v>4.78</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.15</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>43.81</v>
+        <v>4.38</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>158.52</v>
+        <v>15.85</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.32</v>
+        <v>3.03</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>39.81</v>
+        <v>3.98</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,36 +446,36 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.79861111111</v>
+        <v>41477.29861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.80555555555</v>
+        <v>41477.30555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.8125</v>
+        <v>41477.3125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.81944444445</v>
+        <v>41477.31944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>1.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>1.15</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.03</v>
+        <v>2.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.53</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.74</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.64</v>
+        <v>7.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.71</v>
+        <v>2.11</v>
       </c>
       <c r="AG5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>0.61</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44781.82638888889</v>
+        <v>41477.32638888889</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.56</v>
+        <v>9.52</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.16</v>
+        <v>7.04</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.33</v>
+        <v>20.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.87</v>
+        <v>16.78</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.19</v>
+        <v>7.45</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.62</v>
+        <v>28.66</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9</v>
+        <v>11.63</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.91</v>
+        <v>5.09</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.34</v>
+        <v>7.44</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.4</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.43</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>18.12</v>
+        <v>107.11</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.41</v>
+        <v>20.99</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.12</v>
+        <v>6.94</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.32</v>
+        <v>13.97</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.2</v>
+        <v>7.33</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.17</v>
+        <v>1.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.35</v>
+        <v>13.93</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.01</v>
+        <v>6.13</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.91</v>
+        <v>5.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.06</v>
+        <v>6.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.52</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.22</v>
+        <v>26</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44781.83333333334</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44781.84027777778</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44781.84722222222</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44781.85416666666</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44781.86109953704</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>37.26</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>198.59</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>37.66</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>25.74</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>47.55</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.52</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -443,20 +443,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41477.29861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41477.30555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.82</v>
+        <v>28.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.76</v>
+        <v>47.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.17</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.38</v>
+        <v>23.8</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.37</v>
+        <v>43.67</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41477.3125</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.67</v>
+        <v>36.69</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.36</v>
+        <v>33.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41477.31944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.28</v>
+        <v>72.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>16.18</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.72</v>
+        <v>11.715</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.753</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>35.47</v>
+        <v>35.474</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.15</v>
+        <v>28.154</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>12.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.63</v>
+        <v>47.626</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.528</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.44</v>
+        <v>12.442</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.17</v>
+        <v>14.169</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.15</v>
+        <v>15.149</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.98</v>
+        <v>17.979</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.1</v>
+        <v>11.103</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.379</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.007</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>187.24</v>
+        <v>187.242</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>35.73</v>
+        <v>35.731</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.64</v>
+        <v>23.641</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.32</v>
+        <v>12.324</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.266</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.8</v>
+        <v>23.796</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.41</v>
+        <v>9.404999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.08</v>
+        <v>11.076</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.812</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.67</v>
+        <v>43.666</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.49</v>
+        <v>6.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41477.3125</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.41</v>
+        <v>11.405</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.07</v>
+        <v>25.065</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.91</v>
+        <v>19.911</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.9</v>
+        <v>8.895</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.69</v>
+        <v>36.686</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.052</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.028</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.74</v>
+        <v>10.739</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.72</v>
+        <v>12.715</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>7.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.02</v>
+        <v>130.022</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.3</v>
+        <v>25.297</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.74</v>
+        <v>16.744</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.73</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.573</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.71</v>
+        <v>17.714</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.644</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.811</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.49</v>
+        <v>10.492</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.63</v>
+        <v>33.627</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.57</v>
+        <v>4.572</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>41477.32638888889</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,55 +967,55 @@
         <v>41477.31944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.62</v>
+        <v>6.621</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.82</v>
+        <v>4.815</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.62</v>
+        <v>14.625</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>11.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.153</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.93</v>
+        <v>22.933</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.01</v>
+        <v>5.013</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.85</v>
+        <v>5.851</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>6.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.694</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.401</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.677</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.43</v>
@@ -1024,46 +1024,150 @@
         <v>72.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.83</v>
+        <v>14.827</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.753</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.067</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.986</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.86</v>
+        <v>10.865</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.91</v>
+        <v>3.913</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.594</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.12</v>
+        <v>6.118</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.1</v>
+        <v>21.103</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.07</v>
+        <v>6.075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>41477.32638888889</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.11</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_6.xlsx
+++ b/DATA_goal/Junction_Flooding_6.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,55 +967,55 @@
         <v>41477.31944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.621</v>
+        <v>6.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.815</v>
+        <v>4.82</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.625</v>
+        <v>14.62</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>11.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.153</v>
+        <v>5.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.933</v>
+        <v>22.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.144</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.507</v>
+        <v>3.51</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.013</v>
+        <v>5.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.851</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>6.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.694</v>
+        <v>1.69</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.401</v>
+        <v>7.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.654</v>
+        <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.677</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.43</v>
@@ -1024,150 +1024,46 @@
         <v>72.8</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.827</v>
+        <v>14.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.753</v>
+        <v>9.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.067</v>
+        <v>5.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.865</v>
+        <v>10.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.913</v>
+        <v>3.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.594</v>
+        <v>4.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.118</v>
+        <v>6.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.103</v>
+        <v>21.1</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.075</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>41477.32638888889</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>
